--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAD228D-A81C-453C-B8B7-A1B69233E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4AF919-72E8-4B29-8F3C-7319C0775D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -157,13 +157,13 @@
     <t>AddNewProfile_GaapSourceObjProfile</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16 - NACUBO REVENUES PROP </t>
-  </si>
-  <si>
     <t>verifyElementNotPresent</t>
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -279,6 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -620,10 +621,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -730,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FDA5A-72D7-458E-9F39-746AC8B4C71C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,8 +794,8 @@
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
